--- a/old_database/crypto/fastqFiles/fastq_1658.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_1658.xlsx
@@ -37,7 +37,7 @@
     <t>07.11.16</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1658</t>
   </si>
   <si>
     <t>sequence/run_1658_samples/1658_Brent_Crypto_TimeCourse2016_1_TGAGGTT_S1_R1_001.fastq.gz</t>
